--- a/Tabellen/Modellextrapolationscheck.xlsx
+++ b/Tabellen/Modellextrapolationscheck.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Unsere Variablen" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Modell 2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">evang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ost</t>
   </si>
 </sst>
 </file>
@@ -476,14 +473,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tabellen/Modellextrapolationscheck.xlsx
+++ b/Tabellen/Modellextrapolationscheck.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Modell 2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Modell Gesamt-Check" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
